--- a/calendar_chilean_2023A.xlsx
+++ b/calendar_chilean_2023A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed268546/Dropbox/Mac/Documents/codes/SPOCK_chilean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2579166-BBB0-6947-8770-46C09D9A4758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2753B0E8-FAB3-8B46-BD13-656F8EDC8428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19800" windowHeight="21900" xr2:uid="{29A8BF1E-0110-C24B-9407-C010B9269ACA}"/>
+    <workbookView xWindow="22600" yWindow="500" windowWidth="28600" windowHeight="20840" xr2:uid="{29A8BF1E-0110-C24B-9407-C010B9269ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -90,12 +93,45 @@
   <si>
     <t>False</t>
   </si>
+  <si>
+    <t>sent 1 month in advance</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>sent 1 week in advance</t>
+  </si>
+  <si>
+    <t>sent 3 days in advance</t>
+  </si>
+  <si>
+    <t>sent 2 weeks in advance</t>
+  </si>
+  <si>
+    <t>clouds</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>pb plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camera disconnection ? </t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>wheather</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,8 +154,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +188,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -273,9 +353,125 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -291,130 +487,14 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,12 +529,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,56 +538,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -534,7 +638,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -822,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,19 +936,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD27D292-CBD1-CA4F-A514-6D8CE062AE5E}">
   <dimension ref="A1:L215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177:G178"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="140" workbookViewId="0">
+      <selection activeCell="H192" sqref="H191:H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -859,16 +964,16 @@
       <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -888,12 +993,14 @@
       <c r="E2" s="28">
         <v>0</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -911,12 +1018,14 @@
       <c r="E3" s="29">
         <v>0</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -934,12 +1043,14 @@
       <c r="E4" s="29">
         <v>0</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -957,10 +1068,10 @@
       <c r="E5" s="29">
         <v>0</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -978,10 +1089,10 @@
       <c r="E6" s="29">
         <v>0</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="19"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -999,10 +1110,10 @@
       <c r="E7" s="29">
         <v>0</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="19"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -1020,10 +1131,10 @@
       <c r="E8" s="29">
         <v>0</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="19"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -1041,10 +1152,10 @@
       <c r="E9" s="29">
         <v>0</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -1062,14 +1173,18 @@
       <c r="E10" s="29">
         <v>0</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -1087,14 +1202,18 @@
       <c r="E11" s="29">
         <v>0</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -1112,14 +1231,18 @@
       <c r="E12" s="29">
         <v>0</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="18"/>
+      <c r="G12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -1137,10 +1260,10 @@
       <c r="E13" s="29">
         <v>0</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="18"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -1158,10 +1281,10 @@
       <c r="E14" s="29">
         <v>0</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="18"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -1179,10 +1302,10 @@
       <c r="E15" s="29">
         <v>0</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="19"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -1200,10 +1323,10 @@
       <c r="E16" s="29">
         <v>0</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -1221,10 +1344,10 @@
       <c r="E17" s="29">
         <v>0</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="19"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -1242,12 +1365,14 @@
       <c r="E18" s="29">
         <v>0</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="19"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
@@ -1265,12 +1390,14 @@
       <c r="E19" s="29">
         <v>0</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="19"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -1288,12 +1415,14 @@
       <c r="E20" s="29">
         <v>0</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="18"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
@@ -1311,10 +1440,10 @@
       <c r="E21" s="29">
         <v>0</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="18"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
@@ -1332,10 +1461,10 @@
       <c r="E22" s="29">
         <v>0</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="18"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
@@ -1353,10 +1482,10 @@
       <c r="E23" s="29">
         <v>0</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
@@ -1374,10 +1503,10 @@
       <c r="E24" s="29">
         <v>0</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
@@ -1395,10 +1524,10 @@
       <c r="E25" s="29">
         <v>0</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="19"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
@@ -1416,12 +1545,14 @@
       <c r="E26" s="30">
         <v>1</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="19"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
@@ -1439,12 +1570,14 @@
       <c r="E27" s="30">
         <v>1</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="19"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
@@ -1462,12 +1595,14 @@
       <c r="E28" s="30">
         <v>1</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="19"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
@@ -1485,10 +1620,10 @@
       <c r="E29" s="29">
         <v>0</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="18"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -1506,10 +1641,10 @@
       <c r="E30" s="29">
         <v>0</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="18"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -1527,10 +1662,10 @@
       <c r="E31" s="29">
         <v>0</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="18"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -1548,12 +1683,12 @@
       <c r="E32" s="29">
         <v>0</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F32" s="39"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>45048</v>
       </c>
@@ -1569,12 +1704,12 @@
       <c r="E33" s="29">
         <v>0</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="39"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>45049</v>
       </c>
@@ -1590,16 +1725,16 @@
       <c r="E34" s="29">
         <v>0</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="14"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>45050</v>
       </c>
@@ -1615,16 +1750,16 @@
       <c r="E35" s="29">
         <v>0</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="14"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>45051</v>
       </c>
@@ -1640,16 +1775,16 @@
       <c r="E36" s="29">
         <v>0</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>45052</v>
       </c>
@@ -1665,12 +1800,12 @@
       <c r="E37" s="29">
         <v>0</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F37" s="39"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>45053</v>
       </c>
@@ -1686,12 +1821,12 @@
       <c r="E38" s="29">
         <v>0</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F38" s="39"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>45054</v>
       </c>
@@ -1707,12 +1842,12 @@
       <c r="E39" s="29">
         <v>0</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F39" s="39"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>45055</v>
       </c>
@@ -1728,12 +1863,12 @@
       <c r="E40" s="29">
         <v>0</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F40" s="39"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>45056</v>
       </c>
@@ -1749,12 +1884,12 @@
       <c r="E41" s="29">
         <v>0</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F41" s="39"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45057</v>
       </c>
@@ -1770,16 +1905,20 @@
       <c r="E42" s="29">
         <v>0</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="19"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>45058</v>
       </c>
@@ -1795,16 +1934,20 @@
       <c r="E43" s="29">
         <v>0</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45059</v>
       </c>
@@ -1820,16 +1963,23 @@
       <c r="E44" s="29">
         <v>0</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H44" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45060</v>
       </c>
@@ -1845,12 +1995,12 @@
       <c r="E45" s="29">
         <v>0</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F45" s="39"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45061</v>
       </c>
@@ -1866,12 +2016,12 @@
       <c r="E46" s="29">
         <v>0</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F46" s="39"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45062</v>
       </c>
@@ -1887,12 +2037,12 @@
       <c r="E47" s="29">
         <v>0</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F47" s="39"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45063</v>
       </c>
@@ -1908,10 +2058,10 @@
       <c r="E48" s="29">
         <v>0</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="18"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
@@ -1929,10 +2079,10 @@
       <c r="E49" s="29">
         <v>0</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="18"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
@@ -1950,12 +2100,14 @@
       <c r="E50" s="29">
         <v>0</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="19"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
@@ -1973,12 +2125,14 @@
       <c r="E51" s="29">
         <v>0</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="19"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
@@ -1996,12 +2150,14 @@
       <c r="E52" s="29">
         <v>0</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="19"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
@@ -2019,10 +2175,10 @@
       <c r="E53" s="29">
         <v>0</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="19"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
@@ -2040,10 +2196,10 @@
       <c r="E54" s="29">
         <v>0</v>
       </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="19"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
@@ -2061,10 +2217,10 @@
       <c r="E55" s="29">
         <v>0</v>
       </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="19"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
@@ -2082,10 +2238,10 @@
       <c r="E56" s="29">
         <v>0</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="18"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="15"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
@@ -2103,10 +2259,10 @@
       <c r="E57" s="29">
         <v>0</v>
       </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="18"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="15"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
@@ -2124,14 +2280,18 @@
       <c r="E58" s="30">
         <v>1</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="18"/>
+      <c r="G58" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
@@ -2149,14 +2309,18 @@
       <c r="E59" s="30">
         <v>1</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="19"/>
+      <c r="G59" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
@@ -2174,14 +2338,18 @@
       <c r="E60" s="30">
         <v>1</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="19"/>
+      <c r="G60" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
@@ -2199,10 +2367,10 @@
       <c r="E61" s="29">
         <v>0</v>
       </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="19"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
@@ -2220,10 +2388,10 @@
       <c r="E62" s="29">
         <v>0</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="19"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
@@ -2241,10 +2409,10 @@
       <c r="E63" s="29">
         <v>0</v>
       </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="19"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
@@ -2262,10 +2430,10 @@
       <c r="E64" s="29">
         <v>0</v>
       </c>
-      <c r="F64" s="25"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="19"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
@@ -2283,14 +2451,18 @@
       <c r="E65" s="29">
         <v>0</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="18"/>
+      <c r="G65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
@@ -2308,14 +2480,18 @@
       <c r="E66" s="29">
         <v>0</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="16"/>
-      <c r="I66" s="18"/>
+      <c r="G66" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
@@ -2333,14 +2509,18 @@
       <c r="E67" s="29">
         <v>0</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="18"/>
+      <c r="G67" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
@@ -2358,10 +2538,10 @@
       <c r="E68" s="29">
         <v>0</v>
       </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="19"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
@@ -2379,10 +2559,10 @@
       <c r="E69" s="29">
         <v>0</v>
       </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="19"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
@@ -2400,10 +2580,10 @@
       <c r="E70" s="29">
         <v>0</v>
       </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="19"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
@@ -2421,10 +2601,10 @@
       <c r="E71" s="29">
         <v>0</v>
       </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="19"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
@@ -2442,10 +2622,10 @@
       <c r="E72" s="29">
         <v>0</v>
       </c>
-      <c r="F72" s="25"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="19"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
@@ -2463,14 +2643,18 @@
       <c r="E73" s="29">
         <v>0</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="16"/>
-      <c r="I73" s="19"/>
+      <c r="G73" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
@@ -2488,14 +2672,18 @@
       <c r="E74" s="29">
         <v>0</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="16"/>
-      <c r="I74" s="18"/>
+      <c r="G74" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
@@ -2513,14 +2701,18 @@
       <c r="E75" s="29">
         <v>0</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F75" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="18"/>
+      <c r="G75" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2538,10 +2730,10 @@
       <c r="E76" s="29">
         <v>0</v>
       </c>
-      <c r="F76" s="25"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="18"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
@@ -2559,10 +2751,10 @@
       <c r="E77" s="29">
         <v>0</v>
       </c>
-      <c r="F77" s="25"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="19"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
@@ -2580,10 +2772,10 @@
       <c r="E78" s="29">
         <v>0</v>
       </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="19"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
@@ -2601,10 +2793,10 @@
       <c r="E79" s="29">
         <v>0</v>
       </c>
-      <c r="F79" s="25"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="19"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
@@ -2622,10 +2814,10 @@
       <c r="E80" s="29">
         <v>0</v>
       </c>
-      <c r="F80" s="25"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="19"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="16"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
@@ -2643,14 +2835,18 @@
       <c r="E81" s="29">
         <v>0</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F81" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="16"/>
-      <c r="I81" s="19"/>
+      <c r="G81" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
@@ -2668,12 +2864,14 @@
       <c r="E82" s="29">
         <v>0</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="19"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
@@ -2691,12 +2889,14 @@
       <c r="E83" s="29">
         <v>0</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="F83" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="18"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
@@ -2714,10 +2914,10 @@
       <c r="E84" s="29">
         <v>0</v>
       </c>
-      <c r="F84" s="25"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="18"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
@@ -2735,10 +2935,10 @@
       <c r="E85" s="29">
         <v>0</v>
       </c>
-      <c r="F85" s="25"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="18"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="15"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
@@ -2756,10 +2956,10 @@
       <c r="E86" s="29">
         <v>0</v>
       </c>
-      <c r="F86" s="25"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="19"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
@@ -2777,10 +2977,10 @@
       <c r="E87" s="29">
         <v>0</v>
       </c>
-      <c r="F87" s="25"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="19"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
@@ -2798,10 +2998,10 @@
       <c r="E88" s="29">
         <v>0</v>
       </c>
-      <c r="F88" s="25"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="19"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
@@ -2819,14 +3019,18 @@
       <c r="E89" s="30">
         <v>1</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F89" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G89" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="19"/>
+      <c r="G89" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
@@ -2844,14 +3048,18 @@
       <c r="E90" s="30">
         <v>1</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G90" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="19"/>
+      <c r="G90" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
@@ -2869,14 +3077,18 @@
       <c r="E91" s="30">
         <v>1</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G91" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="19"/>
+      <c r="G91" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
@@ -2894,10 +3106,10 @@
       <c r="E92" s="29">
         <v>0</v>
       </c>
-      <c r="F92" s="25"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="19"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
@@ -2915,10 +3127,10 @@
       <c r="E93" s="29">
         <v>0</v>
       </c>
-      <c r="F93" s="25"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="19"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
@@ -2936,10 +3148,10 @@
       <c r="E94" s="29">
         <v>0</v>
       </c>
-      <c r="F94" s="25"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="19"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="16"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
@@ -2957,10 +3169,10 @@
       <c r="E95" s="29">
         <v>0</v>
       </c>
-      <c r="F95" s="25"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="19"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="16"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
@@ -2978,12 +3190,12 @@
       <c r="E96" s="29">
         <v>0</v>
       </c>
-      <c r="F96" s="25"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="19"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F96" s="39"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>45112</v>
       </c>
@@ -2999,16 +3211,20 @@
       <c r="E97" s="29">
         <v>0</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F97" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="19"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G97" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>45113</v>
       </c>
@@ -3024,16 +3240,20 @@
       <c r="E98" s="29">
         <v>0</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G98" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="19"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G98" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>45114</v>
       </c>
@@ -3049,16 +3269,23 @@
       <c r="E99" s="29">
         <v>0</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F99" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G99" s="38" t="s">
+      <c r="G99" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>45115</v>
       </c>
@@ -3074,12 +3301,12 @@
       <c r="E100" s="29">
         <v>0</v>
       </c>
-      <c r="F100" s="25"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="19"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F100" s="39"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45116</v>
       </c>
@@ -3095,12 +3322,12 @@
       <c r="E101" s="29">
         <v>0</v>
       </c>
-      <c r="F101" s="25"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="19"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F101" s="39"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>45117</v>
       </c>
@@ -3116,12 +3343,12 @@
       <c r="E102" s="29">
         <v>0</v>
       </c>
-      <c r="F102" s="25"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="19"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F102" s="39"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>45118</v>
       </c>
@@ -3137,12 +3364,12 @@
       <c r="E103" s="29">
         <v>0</v>
       </c>
-      <c r="F103" s="25"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="19"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F103" s="39"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>45119</v>
       </c>
@@ -3158,12 +3385,12 @@
       <c r="E104" s="29">
         <v>0</v>
       </c>
-      <c r="F104" s="25"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="19"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F104" s="39"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>45120</v>
       </c>
@@ -3179,16 +3406,20 @@
       <c r="E105" s="29">
         <v>0</v>
       </c>
-      <c r="F105" s="25" t="s">
+      <c r="F105" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="19"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G105" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>45121</v>
       </c>
@@ -3204,16 +3435,20 @@
       <c r="E106" s="29">
         <v>0</v>
       </c>
-      <c r="F106" s="25" t="s">
+      <c r="F106" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="19"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G106" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45122</v>
       </c>
@@ -3229,16 +3464,20 @@
       <c r="E107" s="29">
         <v>0</v>
       </c>
-      <c r="F107" s="25" t="s">
+      <c r="F107" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G107" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H107" s="16"/>
-      <c r="I107" s="19"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G107" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>45123</v>
       </c>
@@ -3254,12 +3493,12 @@
       <c r="E108" s="29">
         <v>0</v>
       </c>
-      <c r="F108" s="25"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F108" s="39"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="16"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>45124</v>
       </c>
@@ -3275,12 +3514,12 @@
       <c r="E109" s="29">
         <v>0</v>
       </c>
-      <c r="F109" s="25"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="19"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F109" s="39"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="16"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>45125</v>
       </c>
@@ -3296,12 +3535,12 @@
       <c r="E110" s="29">
         <v>0</v>
       </c>
-      <c r="F110" s="25"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="19"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F110" s="39"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="16"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>45126</v>
       </c>
@@ -3317,12 +3556,12 @@
       <c r="E111" s="29">
         <v>0</v>
       </c>
-      <c r="F111" s="25"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="19"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F111" s="39"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="16"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>45127</v>
       </c>
@@ -3338,12 +3577,12 @@
       <c r="E112" s="29">
         <v>0</v>
       </c>
-      <c r="F112" s="25"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="19"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F112" s="39"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="16"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>45128</v>
       </c>
@@ -3359,16 +3598,20 @@
       <c r="E113" s="29">
         <v>0</v>
       </c>
-      <c r="F113" s="25" t="s">
+      <c r="F113" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G113" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="19"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G113" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>45129</v>
       </c>
@@ -3384,16 +3627,20 @@
       <c r="E114" s="29">
         <v>0</v>
       </c>
-      <c r="F114" s="25" t="s">
+      <c r="F114" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" s="16"/>
-      <c r="I114" s="19"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G114" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>45130</v>
       </c>
@@ -3409,16 +3656,20 @@
       <c r="E115" s="29">
         <v>0</v>
       </c>
-      <c r="F115" s="25" t="s">
+      <c r="F115" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H115" s="16"/>
-      <c r="I115" s="19"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G115" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>45131</v>
       </c>
@@ -3434,12 +3685,12 @@
       <c r="E116" s="29">
         <v>0</v>
       </c>
-      <c r="F116" s="25"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="19"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F116" s="39"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="16"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>45132</v>
       </c>
@@ -3455,12 +3706,12 @@
       <c r="E117" s="29">
         <v>0</v>
       </c>
-      <c r="F117" s="25"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="19"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F117" s="39"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="16"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>45133</v>
       </c>
@@ -3476,12 +3727,12 @@
       <c r="E118" s="29">
         <v>0</v>
       </c>
-      <c r="F118" s="25"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F118" s="39"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="16"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>45134</v>
       </c>
@@ -3497,12 +3748,12 @@
       <c r="E119" s="29">
         <v>0</v>
       </c>
-      <c r="F119" s="25"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="19"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F119" s="39"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="16"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>45135</v>
       </c>
@@ -3518,12 +3769,12 @@
       <c r="E120" s="29">
         <v>0</v>
       </c>
-      <c r="F120" s="26"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F120" s="42"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>45136</v>
       </c>
@@ -3539,16 +3790,20 @@
       <c r="E121" s="30">
         <v>1</v>
       </c>
-      <c r="F121" s="25" t="s">
+      <c r="F121" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G121" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" s="16"/>
-      <c r="I121" s="19"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G121" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>45137</v>
       </c>
@@ -3564,16 +3819,20 @@
       <c r="E122" s="30">
         <v>1</v>
       </c>
-      <c r="F122" s="25" t="s">
+      <c r="F122" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G122" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122" s="16"/>
-      <c r="I122" s="19"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G122" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>45138</v>
       </c>
@@ -3589,16 +3848,23 @@
       <c r="E123" s="30">
         <v>1</v>
       </c>
-      <c r="F123" s="25" t="s">
+      <c r="F123" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G123" s="38" t="s">
+      <c r="G123" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="16"/>
-      <c r="I123" s="19"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>45139</v>
       </c>
@@ -3614,12 +3880,12 @@
       <c r="E124" s="29">
         <v>0</v>
       </c>
-      <c r="F124" s="25"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="19"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F124" s="39"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="16"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>45140</v>
       </c>
@@ -3635,12 +3901,12 @@
       <c r="E125" s="29">
         <v>0</v>
       </c>
-      <c r="F125" s="25"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="19"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F125" s="39"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="16"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>45141</v>
       </c>
@@ -3656,12 +3922,12 @@
       <c r="E126" s="29">
         <v>0</v>
       </c>
-      <c r="F126" s="25"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="19"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F126" s="39"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="16"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>45142</v>
       </c>
@@ -3677,12 +3943,12 @@
       <c r="E127" s="29">
         <v>0</v>
       </c>
-      <c r="F127" s="25"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="19"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F127" s="39"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="16"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>45143</v>
       </c>
@@ -3698,12 +3964,12 @@
       <c r="E128" s="29">
         <v>0</v>
       </c>
-      <c r="F128" s="25"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="19"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F128" s="39"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="16"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>45144</v>
       </c>
@@ -3719,16 +3985,20 @@
       <c r="E129" s="29">
         <v>0</v>
       </c>
-      <c r="F129" s="25" t="s">
+      <c r="F129" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G129" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="16"/>
-      <c r="I129" s="19"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G129" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>45145</v>
       </c>
@@ -3744,16 +4014,20 @@
       <c r="E130" s="29">
         <v>0</v>
       </c>
-      <c r="F130" s="25" t="s">
+      <c r="F130" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G130" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="16"/>
-      <c r="I130" s="19"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G130" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>45146</v>
       </c>
@@ -3769,16 +4043,23 @@
       <c r="E131" s="29">
         <v>0</v>
       </c>
-      <c r="F131" s="25" t="s">
+      <c r="F131" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G131" s="38" t="s">
+      <c r="G131" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="19"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>45147</v>
       </c>
@@ -3794,12 +4075,12 @@
       <c r="E132" s="29">
         <v>0</v>
       </c>
-      <c r="F132" s="25"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="19"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F132" s="39"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="16"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>45148</v>
       </c>
@@ -3815,12 +4096,12 @@
       <c r="E133" s="29">
         <v>0</v>
       </c>
-      <c r="F133" s="25"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="19"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F133" s="39"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="16"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>45149</v>
       </c>
@@ -3836,12 +4117,12 @@
       <c r="E134" s="29">
         <v>0</v>
       </c>
-      <c r="F134" s="25"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="19"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F134" s="39"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="16"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>45150</v>
       </c>
@@ -3857,12 +4138,12 @@
       <c r="E135" s="29">
         <v>0</v>
       </c>
-      <c r="F135" s="25"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="19"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F135" s="39"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="16"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>45151</v>
       </c>
@@ -3878,12 +4159,12 @@
       <c r="E136" s="29">
         <v>0</v>
       </c>
-      <c r="F136" s="25"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="19"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F136" s="39"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="16"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>45152</v>
       </c>
@@ -3899,16 +4180,23 @@
       <c r="E137" s="29">
         <v>0</v>
       </c>
-      <c r="F137" s="25" t="s">
+      <c r="F137" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G137" s="38" t="s">
+      <c r="G137" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I137" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H137" s="16"/>
-      <c r="I137" s="19"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>45153</v>
       </c>
@@ -3924,16 +4212,20 @@
       <c r="E138" s="29">
         <v>0</v>
       </c>
-      <c r="F138" s="25" t="s">
+      <c r="F138" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G138" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H138" s="16"/>
-      <c r="I138" s="19"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G138" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I138" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>45154</v>
       </c>
@@ -3949,16 +4241,23 @@
       <c r="E139" s="29">
         <v>0</v>
       </c>
-      <c r="F139" s="25" t="s">
+      <c r="F139" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G139" s="38" t="s">
+      <c r="G139" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I139" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H139" s="16"/>
-      <c r="I139" s="19"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>45155</v>
       </c>
@@ -3974,12 +4273,12 @@
       <c r="E140" s="29">
         <v>0</v>
       </c>
-      <c r="F140" s="25"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="19"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F140" s="39"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>45156</v>
       </c>
@@ -3995,12 +4294,12 @@
       <c r="E141" s="29">
         <v>0</v>
       </c>
-      <c r="F141" s="25"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="19"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F141" s="39"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>45157</v>
       </c>
@@ -4016,12 +4315,12 @@
       <c r="E142" s="29">
         <v>0</v>
       </c>
-      <c r="F142" s="25"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="19"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F142" s="39"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>45158</v>
       </c>
@@ -4037,12 +4336,12 @@
       <c r="E143" s="29">
         <v>0</v>
       </c>
-      <c r="F143" s="25"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="19"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F143" s="39"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="16"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>45159</v>
       </c>
@@ -4058,10 +4357,10 @@
       <c r="E144" s="29">
         <v>0</v>
       </c>
-      <c r="F144" s="25"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="19"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="16"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
@@ -4079,14 +4378,18 @@
       <c r="E145" s="29">
         <v>0</v>
       </c>
-      <c r="F145" s="25" t="s">
+      <c r="F145" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G145" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="19"/>
+      <c r="G145" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I145" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="146" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
@@ -4104,14 +4407,18 @@
       <c r="E146" s="29">
         <v>0</v>
       </c>
-      <c r="F146" s="25" t="s">
+      <c r="F146" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G146" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H146" s="16"/>
-      <c r="I146" s="19"/>
+      <c r="G146" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I146" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
@@ -4129,18 +4436,22 @@
       <c r="E147" s="29">
         <v>0</v>
       </c>
-      <c r="F147" s="25" t="s">
+      <c r="F147" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G147" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" s="16"/>
-      <c r="I147" s="19"/>
-      <c r="K147" s="34" t="s">
+      <c r="G147" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I147" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L147" s="35">
+      <c r="L147" s="25">
         <f>COUNTIF(F1:F193,"Pignata")</f>
         <v>10</v>
       </c>
@@ -4161,14 +4472,14 @@
       <c r="E148" s="29">
         <v>0</v>
       </c>
-      <c r="F148" s="26"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="19"/>
-      <c r="K148" s="36" t="s">
+      <c r="F148" s="42"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="16"/>
+      <c r="K148" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L148" s="19">
+      <c r="L148" s="16">
         <f>COUNTIF(F2:F194,"Caceres")</f>
         <v>27</v>
       </c>
@@ -4189,14 +4500,14 @@
       <c r="E149" s="29">
         <v>0</v>
       </c>
-      <c r="F149" s="25"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="19"/>
-      <c r="K149" s="36" t="s">
+      <c r="F149" s="39"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="16"/>
+      <c r="K149" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L149" s="19">
+      <c r="L149" s="16">
         <f>COUNTIF(F1:F184,"None")</f>
         <v>17</v>
       </c>
@@ -4217,14 +4528,14 @@
       <c r="E150" s="29">
         <v>0</v>
       </c>
-      <c r="F150" s="25"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="19"/>
-      <c r="K150" s="36" t="s">
+      <c r="F150" s="39"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="16"/>
+      <c r="K150" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L150" s="19">
+      <c r="L150" s="16">
         <f>COUNTIF(F2:F184,"Leiva")</f>
         <v>12</v>
       </c>
@@ -4245,12 +4556,12 @@
       <c r="E151" s="29">
         <v>0</v>
       </c>
-      <c r="F151" s="25"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="19"/>
-      <c r="K151" s="37"/>
-      <c r="L151" s="23"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="16"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="20"/>
     </row>
     <row r="152" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
@@ -4268,11 +4579,11 @@
       <c r="E152" s="29">
         <v>0</v>
       </c>
-      <c r="F152" s="25"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="16"/>
-      <c r="I152" s="19"/>
-      <c r="L152" s="33">
+      <c r="F152" s="39"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="16"/>
+      <c r="L152" s="23">
         <f>SUM(L147:L151)</f>
         <v>66</v>
       </c>
@@ -4293,14 +4604,18 @@
       <c r="E153" s="30">
         <v>1</v>
       </c>
-      <c r="F153" s="25" t="s">
+      <c r="F153" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G153" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H153" s="15"/>
-      <c r="I153" s="19"/>
+      <c r="G153" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H153" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
@@ -4318,14 +4633,18 @@
       <c r="E154" s="30">
         <v>1</v>
       </c>
-      <c r="F154" s="25" t="s">
+      <c r="F154" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G154" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H154" s="15"/>
-      <c r="I154" s="19"/>
+      <c r="G154" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H154" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
@@ -4343,14 +4662,18 @@
       <c r="E155" s="30">
         <v>1</v>
       </c>
-      <c r="F155" s="25" t="s">
+      <c r="F155" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G155" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" s="15"/>
-      <c r="I155" s="19"/>
+      <c r="G155" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H155" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
@@ -4368,10 +4691,10 @@
       <c r="E156" s="29">
         <v>0</v>
       </c>
-      <c r="F156" s="25"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="19"/>
+      <c r="F156" s="39"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="16"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
@@ -4389,10 +4712,10 @@
       <c r="E157" s="29">
         <v>0</v>
       </c>
-      <c r="F157" s="25"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="19"/>
+      <c r="F157" s="39"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="16"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
@@ -4410,10 +4733,10 @@
       <c r="E158" s="29">
         <v>0</v>
       </c>
-      <c r="F158" s="25"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="19"/>
+      <c r="F158" s="39"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="16"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
@@ -4431,10 +4754,10 @@
       <c r="E159" s="29">
         <v>0</v>
       </c>
-      <c r="F159" s="25"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="19"/>
+      <c r="F159" s="39"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="16"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
@@ -4452,10 +4775,10 @@
       <c r="E160" s="29">
         <v>0</v>
       </c>
-      <c r="F160" s="25"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="19"/>
+      <c r="F160" s="39"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="16"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
@@ -4473,14 +4796,18 @@
       <c r="E161" s="29">
         <v>0</v>
       </c>
-      <c r="F161" s="25" t="s">
+      <c r="F161" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G161" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H161" s="15"/>
-      <c r="I161" s="19"/>
+      <c r="G161" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H161" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I161" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
@@ -4498,14 +4825,18 @@
       <c r="E162" s="29">
         <v>0</v>
       </c>
-      <c r="F162" s="25" t="s">
+      <c r="F162" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G162" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H162" s="15"/>
-      <c r="I162" s="19"/>
+      <c r="G162" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
@@ -4523,10 +4854,10 @@
       <c r="E163" s="29">
         <v>0</v>
       </c>
-      <c r="F163" s="25"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="19"/>
+      <c r="F163" s="39"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="16"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
@@ -4544,10 +4875,10 @@
       <c r="E164" s="29">
         <v>0</v>
       </c>
-      <c r="F164" s="25"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="19"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="16"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
@@ -4565,10 +4896,10 @@
       <c r="E165" s="29">
         <v>0</v>
       </c>
-      <c r="F165" s="25"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="19"/>
+      <c r="F165" s="39"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="16"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
@@ -4586,10 +4917,10 @@
       <c r="E166" s="29">
         <v>0</v>
       </c>
-      <c r="F166" s="25"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="19"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="16"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
@@ -4607,10 +4938,10 @@
       <c r="E167" s="29">
         <v>0</v>
       </c>
-      <c r="F167" s="25"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="19"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="16"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
@@ -4628,10 +4959,10 @@
       <c r="E168" s="29">
         <v>0</v>
       </c>
-      <c r="F168" s="25"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="19"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="16"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
@@ -4649,14 +4980,18 @@
       <c r="E169" s="29">
         <v>0</v>
       </c>
-      <c r="F169" s="25" t="s">
+      <c r="F169" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G169" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H169" s="15"/>
-      <c r="I169" s="19"/>
+      <c r="G169" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
@@ -4674,14 +5009,18 @@
       <c r="E170" s="29">
         <v>0</v>
       </c>
-      <c r="F170" s="25" t="s">
+      <c r="F170" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G170" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H170" s="15"/>
-      <c r="I170" s="19"/>
+      <c r="G170" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H170" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
@@ -4699,10 +5038,10 @@
       <c r="E171" s="29">
         <v>0</v>
       </c>
-      <c r="F171" s="25"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="19"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="16"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
@@ -4720,10 +5059,10 @@
       <c r="E172" s="29">
         <v>0</v>
       </c>
-      <c r="F172" s="25"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="19"/>
+      <c r="F172" s="39"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="16"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
@@ -4741,10 +5080,10 @@
       <c r="E173" s="29">
         <v>0</v>
       </c>
-      <c r="F173" s="25"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
-      <c r="I173" s="19"/>
+      <c r="F173" s="39"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="16"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
@@ -4762,10 +5101,10 @@
       <c r="E174" s="29">
         <v>0</v>
       </c>
-      <c r="F174" s="25"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
-      <c r="I174" s="19"/>
+      <c r="F174" s="39"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="16"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
@@ -4783,10 +5122,10 @@
       <c r="E175" s="29">
         <v>0</v>
       </c>
-      <c r="F175" s="25"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="19"/>
+      <c r="F175" s="39"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="16"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
@@ -4804,12 +5143,12 @@
       <c r="E176" s="29">
         <v>0</v>
       </c>
-      <c r="F176" s="25"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="19"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F176" s="39"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="16"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>45192</v>
       </c>
@@ -4825,16 +5164,20 @@
       <c r="E177" s="29">
         <v>0</v>
       </c>
-      <c r="F177" s="25" t="s">
+      <c r="F177" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G177" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H177" s="15"/>
-      <c r="I177" s="19"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G177" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>45193</v>
       </c>
@@ -4850,16 +5193,23 @@
       <c r="E178" s="29">
         <v>0</v>
       </c>
-      <c r="F178" s="25" t="s">
+      <c r="F178" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G178" s="38" t="s">
+      <c r="G178" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H178" s="15"/>
-      <c r="I178" s="19"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>45194</v>
       </c>
@@ -4875,12 +5225,12 @@
       <c r="E179" s="29">
         <v>0</v>
       </c>
-      <c r="F179" s="25"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="19"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F179" s="39"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="16"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>45195</v>
       </c>
@@ -4896,12 +5246,12 @@
       <c r="E180" s="29">
         <v>0</v>
       </c>
-      <c r="F180" s="25"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="19"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F180" s="39"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="16"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>45196</v>
       </c>
@@ -4917,12 +5267,12 @@
       <c r="E181" s="29">
         <v>0</v>
       </c>
-      <c r="F181" s="25"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="19"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F181" s="39"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="16"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>45197</v>
       </c>
@@ -4938,12 +5288,12 @@
       <c r="E182" s="29">
         <v>0</v>
       </c>
-      <c r="F182" s="25"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="19"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F182" s="39"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="16"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>45198</v>
       </c>
@@ -4959,33 +5309,33 @@
       <c r="E183" s="29">
         <v>0</v>
       </c>
-      <c r="F183" s="25"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="19"/>
-    </row>
-    <row r="184" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="14">
+      <c r="F183" s="39"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="16"/>
+    </row>
+    <row r="184" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
         <v>45199</v>
       </c>
-      <c r="B184" s="20">
-        <v>0</v>
-      </c>
-      <c r="C184" s="21">
-        <v>0</v>
-      </c>
-      <c r="D184" s="21">
+      <c r="B184" s="17">
+        <v>0</v>
+      </c>
+      <c r="C184" s="18">
+        <v>0</v>
+      </c>
+      <c r="D184" s="18">
         <v>0</v>
       </c>
       <c r="E184" s="31">
         <v>0</v>
       </c>
-      <c r="F184" s="27"/>
-      <c r="G184" s="22"/>
-      <c r="H184" s="22"/>
-      <c r="I184" s="23"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F184" s="46"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="20"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -5011,38 +5361,45 @@
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I185">
+        <f>COUNTIF(I1:I184,"True")</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H191" s="10">
+        <f>66-17</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
